--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H2">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>14.23278153225992</v>
+        <v>14.92937583384633</v>
       </c>
       <c r="R2">
-        <v>14.23278153225992</v>
+        <v>134.364382504617</v>
       </c>
       <c r="S2">
-        <v>0.01012217404307237</v>
+        <v>0.008283624509648089</v>
       </c>
       <c r="T2">
-        <v>0.01012217404307237</v>
+        <v>0.008283624509648091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H3">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>58.43170550331486</v>
+        <v>61.76734854223466</v>
       </c>
       <c r="R3">
-        <v>58.43170550331486</v>
+        <v>555.9061368801119</v>
       </c>
       <c r="S3">
-        <v>0.04155588922639705</v>
+        <v>0.03427186293484918</v>
       </c>
       <c r="T3">
-        <v>0.04155588922639705</v>
+        <v>0.03427186293484918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H4">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>155.3437561270829</v>
+        <v>163.00178931294</v>
       </c>
       <c r="R4">
-        <v>155.3437561270829</v>
+        <v>1467.01610381646</v>
       </c>
       <c r="S4">
-        <v>0.110478512753034</v>
+        <v>0.09044220147556516</v>
       </c>
       <c r="T4">
-        <v>0.110478512753034</v>
+        <v>0.09044220147556517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H5">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I5">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J5">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>154.6806853315985</v>
+        <v>188.1364950255576</v>
       </c>
       <c r="R5">
-        <v>154.6806853315985</v>
+        <v>1693.228455230019</v>
       </c>
       <c r="S5">
-        <v>0.1100069451975594</v>
+        <v>0.1043882945072516</v>
       </c>
       <c r="T5">
-        <v>0.1100069451975594</v>
+        <v>0.1043882945072516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H6">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I6">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J6">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>37.08812125739276</v>
+        <v>43.73539659074966</v>
       </c>
       <c r="R6">
-        <v>37.08812125739276</v>
+        <v>393.618569316747</v>
       </c>
       <c r="S6">
-        <v>0.02637660231396053</v>
+        <v>0.02426676152910375</v>
       </c>
       <c r="T6">
-        <v>0.02637660231396053</v>
+        <v>0.02426676152910375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H7">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>18.7927386219397</v>
+        <v>22.42076948978822</v>
       </c>
       <c r="R7">
-        <v>18.7927386219397</v>
+        <v>201.786925408094</v>
       </c>
       <c r="S7">
-        <v>0.0133651577975874</v>
+        <v>0.01244025455168211</v>
       </c>
       <c r="T7">
-        <v>0.0133651577975874</v>
+        <v>0.01244025455168211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H8">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J8">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>77.15229565415758</v>
+        <v>92.76151254235377</v>
       </c>
       <c r="R8">
-        <v>77.15229565415758</v>
+        <v>834.8536128811838</v>
       </c>
       <c r="S8">
-        <v>0.05486973594471791</v>
+        <v>0.05146910007488928</v>
       </c>
       <c r="T8">
-        <v>0.05486973594471791</v>
+        <v>0.05146910007488927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H9">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J9">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>205.1134276760779</v>
+        <v>244.79426235108</v>
       </c>
       <c r="R9">
-        <v>205.1134276760779</v>
+        <v>2203.14836115972</v>
       </c>
       <c r="S9">
-        <v>0.1458740730898252</v>
+        <v>0.1358250856566589</v>
       </c>
       <c r="T9">
-        <v>0.1458740730898252</v>
+        <v>0.1358250856566589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H10">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J10">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>204.2379195317889</v>
+        <v>282.5412820020064</v>
       </c>
       <c r="R10">
-        <v>204.2379195317889</v>
+        <v>2542.871538018057</v>
       </c>
       <c r="S10">
-        <v>0.1452514227812728</v>
+        <v>0.1567691720422197</v>
       </c>
       <c r="T10">
-        <v>0.1452514227812728</v>
+        <v>0.1567691720422197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H11">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J11">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>48.97056609695028</v>
+        <v>65.68132897308378</v>
       </c>
       <c r="R11">
-        <v>48.97056609695028</v>
+        <v>591.131960757754</v>
       </c>
       <c r="S11">
-        <v>0.03482724665572824</v>
+        <v>0.03644355079294175</v>
       </c>
       <c r="T11">
-        <v>0.03482724665572824</v>
+        <v>0.03644355079294175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H12">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I12">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J12">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>14.64908171765857</v>
+        <v>0.4473946801387777</v>
       </c>
       <c r="R12">
-        <v>14.64908171765857</v>
+        <v>4.026552121249</v>
       </c>
       <c r="S12">
-        <v>0.01041824146469458</v>
+        <v>0.0002482387461558692</v>
       </c>
       <c r="T12">
-        <v>0.01041824146469458</v>
+        <v>0.0002482387461558692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H13">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I13">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J13">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>60.14079727705241</v>
+        <v>1.851007265918222</v>
       </c>
       <c r="R13">
-        <v>60.14079727705241</v>
+        <v>16.659065393264</v>
       </c>
       <c r="S13">
-        <v>0.04277137365929888</v>
+        <v>0.001027038861245316</v>
       </c>
       <c r="T13">
-        <v>0.04277137365929888</v>
+        <v>0.001027038861245316</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H14">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I14">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J14">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>159.8874663168057</v>
+        <v>4.88474094318</v>
       </c>
       <c r="R14">
-        <v>159.8874663168057</v>
+        <v>43.96266848862</v>
       </c>
       <c r="S14">
-        <v>0.1137099419179803</v>
+        <v>0.002710318251113555</v>
       </c>
       <c r="T14">
-        <v>0.1137099419179803</v>
+        <v>0.002710318251113556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H15">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I15">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J15">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>159.2050011046736</v>
+        <v>5.637962896182556</v>
       </c>
       <c r="R15">
-        <v>159.2050011046736</v>
+        <v>50.741666065643</v>
       </c>
       <c r="S15">
-        <v>0.1132245812989133</v>
+        <v>0.003128246495437852</v>
       </c>
       <c r="T15">
-        <v>0.1132245812989133</v>
+        <v>0.003128246495437852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.060067</v>
+      </c>
+      <c r="I16">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J16">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N16">
+        <v>196.376177</v>
+      </c>
+      <c r="O16">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P16">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q16">
+        <v>1.310636424873222</v>
+      </c>
+      <c r="R16">
+        <v>11.795727823859</v>
+      </c>
+      <c r="S16">
+        <v>0.0007272119165024914</v>
+      </c>
+      <c r="T16">
+        <v>0.0007272119165024914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.585897</v>
+      </c>
+      <c r="I17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.34478233333333</v>
+      </c>
+      <c r="N17">
+        <v>67.034347</v>
+      </c>
+      <c r="O17">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="P17">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="Q17">
+        <v>19.26043520047322</v>
+      </c>
+      <c r="R17">
+        <v>173.343916804259</v>
+      </c>
+      <c r="S17">
+        <v>0.01068673030063469</v>
+      </c>
+      <c r="T17">
+        <v>0.01068673030063469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.585897</v>
+      </c>
+      <c r="I18">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J18">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="N18">
+        <v>277.341392</v>
+      </c>
+      <c r="O18">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="P18">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="Q18">
+        <v>79.68625261651378</v>
+      </c>
+      <c r="R18">
+        <v>717.176273548624</v>
+      </c>
+      <c r="S18">
+        <v>0.04421423926911084</v>
+      </c>
+      <c r="T18">
+        <v>0.04421423926911083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="H16">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="I16">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="J16">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="N16">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="O16">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="P16">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="Q16">
-        <v>38.17292620016129</v>
-      </c>
-      <c r="R16">
-        <v>38.17292620016129</v>
-      </c>
-      <c r="S16">
-        <v>0.02714810185595797</v>
-      </c>
-      <c r="T16">
-        <v>0.02714810185595797</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.585897</v>
+      </c>
+      <c r="I19">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J19">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>243.96462</v>
+      </c>
+      <c r="N19">
+        <v>731.89386</v>
+      </c>
+      <c r="O19">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="P19">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="Q19">
+        <v>210.28912632138</v>
+      </c>
+      <c r="R19">
+        <v>1892.60213689242</v>
+      </c>
+      <c r="S19">
+        <v>0.1166797714984899</v>
+      </c>
+      <c r="T19">
+        <v>0.1166797714984899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.585897</v>
+      </c>
+      <c r="I20">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J20">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="N20">
+        <v>844.751129</v>
+      </c>
+      <c r="O20">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="P20">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="Q20">
+        <v>242.7154900253014</v>
+      </c>
+      <c r="R20">
+        <v>2184.439410227713</v>
+      </c>
+      <c r="S20">
+        <v>0.1346716704315724</v>
+      </c>
+      <c r="T20">
+        <v>0.1346716704315723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.585897</v>
+      </c>
+      <c r="I21">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J21">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N21">
+        <v>196.376177</v>
+      </c>
+      <c r="O21">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P21">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q21">
+        <v>56.42317410841878</v>
+      </c>
+      <c r="R21">
+        <v>507.8085669757691</v>
+      </c>
+      <c r="S21">
+        <v>0.03130662615492772</v>
+      </c>
+      <c r="T21">
+        <v>0.03130662615492771</v>
       </c>
     </row>
   </sheetData>
